--- a/data/templates/status/electrode.xlsx
+++ b/data/templates/status/electrode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\eurocell-mes-be\data\templates\status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1464CF-49AC-445D-AD10-65EB12FDF8EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE5ADE46-ADBF-4D93-A709-FFF8B8706993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1575" yWindow="345" windowWidth="25575" windowHeight="15210" xr2:uid="{E25BFB65-D502-4278-AB85-8965F34E216B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E25BFB65-D502-4278-AB85-8965F34E216B}"/>
   </bookViews>
   <sheets>
     <sheet name="전극 공정" sheetId="1" r:id="rId1"/>
@@ -120,7 +120,7 @@
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -371,31 +371,46 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -405,12 +420,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -422,40 +431,31 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -795,11 +795,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA69F4FE-7083-4A74-91FA-43A59943F702}">
   <dimension ref="A1:AL35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AJ27" sqref="AJ27:AJ29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="10.5" bestFit="1" customWidth="1"/>
@@ -810,12 +810,12 @@
     <col min="38" max="38" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="27"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="32"/>
       <c r="D1" s="2">
         <v>1</v>
       </c>
@@ -922,11 +922,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="15.75" customHeight="1">
-      <c r="A2" s="28" t="s">
+    <row r="2" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="17" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="13" t="s">
@@ -967,16 +967,16 @@
         <f>SUM(D2:AH2)</f>
         <v>0</v>
       </c>
-      <c r="AJ2" s="16"/>
+      <c r="AJ2" s="36"/>
       <c r="AK2" s="5" t="str">
         <f>IFERROR(AI2/AL2,"")</f>
         <v/>
       </c>
       <c r="AL2" s="12"/>
     </row>
-    <row r="3" spans="1:38" ht="15.75" customHeight="1">
+    <row r="3" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29"/>
-      <c r="B3" s="36"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="13" t="s">
         <v>1</v>
       </c>
@@ -1015,18 +1015,18 @@
         <f>SUM(D3:AH3)</f>
         <v>0</v>
       </c>
-      <c r="AJ3" s="18"/>
+      <c r="AJ3" s="37"/>
       <c r="AK3" s="5" t="str">
         <f t="shared" ref="AK3:AK5" si="0">IFERROR(AI3/AL3,"")</f>
         <v/>
       </c>
       <c r="AL3" s="12"/>
     </row>
-    <row r="4" spans="1:38">
-      <c r="A4" s="30" t="s">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A4" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="17" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="13" t="s">
@@ -1067,16 +1067,16 @@
         <f>SUM(D4:AH4)</f>
         <v>0</v>
       </c>
-      <c r="AJ4" s="16"/>
+      <c r="AJ4" s="36"/>
       <c r="AK4" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AL4" s="12"/>
     </row>
-    <row r="5" spans="1:38">
-      <c r="A5" s="31"/>
-      <c r="B5" s="36"/>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A5" s="34"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="13" t="s">
         <v>1</v>
       </c>
@@ -1115,21 +1115,21 @@
         <f>SUM(D5:AH5)</f>
         <v>0</v>
       </c>
-      <c r="AJ5" s="18"/>
+      <c r="AJ5" s="37"/>
       <c r="AK5" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AL5" s="12"/>
     </row>
-    <row r="6" spans="1:38" ht="16.5" customHeight="1">
-      <c r="A6" s="30" t="s">
+    <row r="6" spans="1:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="33" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="17" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="11"/>
@@ -1167,19 +1167,19 @@
         <f>SUM(D6:AH6)</f>
         <v>0</v>
       </c>
-      <c r="AJ6" s="16"/>
-      <c r="AK6" s="19" t="str">
+      <c r="AJ6" s="36"/>
+      <c r="AK6" s="42" t="str">
         <f t="shared" ref="AK6" si="1">IFERROR(AI6/AL6,"")</f>
         <v/>
       </c>
-      <c r="AL6" s="16"/>
-    </row>
-    <row r="7" spans="1:38">
-      <c r="A7" s="31"/>
+      <c r="AL6" s="36"/>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A7" s="34"/>
       <c r="B7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="38"/>
+      <c r="C7" s="20"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
@@ -1215,16 +1215,16 @@
         <f t="shared" ref="AI7:AI25" si="2">SUM(D7:AH7)</f>
         <v>0</v>
       </c>
-      <c r="AJ7" s="17"/>
-      <c r="AK7" s="20"/>
-      <c r="AL7" s="17"/>
-    </row>
-    <row r="8" spans="1:38">
-      <c r="A8" s="31"/>
+      <c r="AJ7" s="38"/>
+      <c r="AK7" s="43"/>
+      <c r="AL7" s="38"/>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A8" s="34"/>
       <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="36"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="8" t="str">
         <f>IFERROR(D6/(D6+D7),"")</f>
         <v/>
@@ -1353,16 +1353,16 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AJ8" s="18"/>
-      <c r="AK8" s="21"/>
-      <c r="AL8" s="18"/>
-    </row>
-    <row r="9" spans="1:38">
-      <c r="A9" s="31"/>
+      <c r="AJ8" s="37"/>
+      <c r="AK8" s="44"/>
+      <c r="AL8" s="37"/>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A9" s="34"/>
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="21" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="11"/>
@@ -1400,19 +1400,19 @@
         <f>SUM(D9:AH9)</f>
         <v>0</v>
       </c>
-      <c r="AJ9" s="22"/>
-      <c r="AK9" s="19" t="str">
+      <c r="AJ9" s="39"/>
+      <c r="AK9" s="42" t="str">
         <f t="shared" ref="AK9" si="4">IFERROR(AI9/AL9,"")</f>
         <v/>
       </c>
-      <c r="AL9" s="16"/>
-    </row>
-    <row r="10" spans="1:38">
-      <c r="A10" s="31"/>
+      <c r="AL9" s="36"/>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A10" s="34"/>
       <c r="B10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="40"/>
+      <c r="C10" s="22"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
@@ -1448,16 +1448,16 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AJ10" s="23"/>
-      <c r="AK10" s="20"/>
-      <c r="AL10" s="17"/>
-    </row>
-    <row r="11" spans="1:38">
-      <c r="A11" s="32"/>
+      <c r="AJ10" s="40"/>
+      <c r="AK10" s="43"/>
+      <c r="AL10" s="38"/>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A11" s="35"/>
       <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="41"/>
+      <c r="C11" s="23"/>
       <c r="D11" s="8" t="str">
         <f t="shared" ref="D11:AI26" si="5">IFERROR(D9/(D9+D10),"")</f>
         <v/>
@@ -1586,18 +1586,18 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AJ11" s="24"/>
-      <c r="AK11" s="21"/>
-      <c r="AL11" s="18"/>
-    </row>
-    <row r="12" spans="1:38">
-      <c r="A12" s="28" t="s">
+      <c r="AJ11" s="41"/>
+      <c r="AK11" s="44"/>
+      <c r="AL11" s="37"/>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A12" s="27" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="17" t="s">
         <v>0</v>
       </c>
       <c r="D12" s="11"/>
@@ -1635,19 +1635,19 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AJ12" s="16"/>
-      <c r="AK12" s="19" t="str">
+      <c r="AJ12" s="36"/>
+      <c r="AK12" s="42" t="str">
         <f t="shared" ref="AK12" si="6">IFERROR(AI12/AL12,"")</f>
         <v/>
       </c>
-      <c r="AL12" s="16"/>
-    </row>
-    <row r="13" spans="1:38">
-      <c r="A13" s="33"/>
+      <c r="AL12" s="36"/>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A13" s="28"/>
       <c r="B13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="38"/>
+      <c r="C13" s="20"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
@@ -1683,16 +1683,16 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AJ13" s="17"/>
-      <c r="AK13" s="20"/>
-      <c r="AL13" s="17"/>
-    </row>
-    <row r="14" spans="1:38">
-      <c r="A14" s="33"/>
+      <c r="AJ13" s="38"/>
+      <c r="AK13" s="43"/>
+      <c r="AL13" s="38"/>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A14" s="28"/>
       <c r="B14" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="36"/>
+      <c r="C14" s="18"/>
       <c r="D14" s="8" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -1821,16 +1821,16 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AJ14" s="18"/>
-      <c r="AK14" s="21"/>
-      <c r="AL14" s="18"/>
-    </row>
-    <row r="15" spans="1:38">
-      <c r="A15" s="33"/>
+      <c r="AJ14" s="37"/>
+      <c r="AK14" s="44"/>
+      <c r="AL14" s="37"/>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A15" s="28"/>
       <c r="B15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="21" t="s">
         <v>1</v>
       </c>
       <c r="D15" s="11"/>
@@ -1868,19 +1868,19 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AJ15" s="22"/>
-      <c r="AK15" s="19" t="str">
+      <c r="AJ15" s="39"/>
+      <c r="AK15" s="42" t="str">
         <f t="shared" ref="AK15" si="7">IFERROR(AI15/AL15,"")</f>
         <v/>
       </c>
-      <c r="AL15" s="16"/>
-    </row>
-    <row r="16" spans="1:38">
-      <c r="A16" s="33"/>
+      <c r="AL15" s="36"/>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A16" s="28"/>
       <c r="B16" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="40"/>
+      <c r="C16" s="22"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
@@ -1916,16 +1916,16 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AJ16" s="23"/>
-      <c r="AK16" s="20"/>
-      <c r="AL16" s="17"/>
-    </row>
-    <row r="17" spans="1:38">
+      <c r="AJ16" s="40"/>
+      <c r="AK16" s="43"/>
+      <c r="AL16" s="38"/>
+    </row>
+    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A17" s="29"/>
       <c r="B17" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="41"/>
+      <c r="C17" s="23"/>
       <c r="D17" s="8" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -2051,18 +2051,18 @@
         <v/>
       </c>
       <c r="AI17" s="8"/>
-      <c r="AJ17" s="24"/>
-      <c r="AK17" s="21"/>
-      <c r="AL17" s="18"/>
-    </row>
-    <row r="18" spans="1:38">
-      <c r="A18" s="28" t="s">
+      <c r="AJ17" s="41"/>
+      <c r="AK17" s="44"/>
+      <c r="AL17" s="37"/>
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A18" s="27" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="35" t="s">
+      <c r="C18" s="17" t="s">
         <v>0</v>
       </c>
       <c r="D18" s="11"/>
@@ -2100,19 +2100,19 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AJ18" s="16"/>
-      <c r="AK18" s="19" t="str">
+      <c r="AJ18" s="36"/>
+      <c r="AK18" s="42" t="str">
         <f t="shared" ref="AK18" si="8">IFERROR(AI18/AL18,"")</f>
         <v/>
       </c>
-      <c r="AL18" s="16"/>
-    </row>
-    <row r="19" spans="1:38">
-      <c r="A19" s="33"/>
+      <c r="AL18" s="36"/>
+    </row>
+    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A19" s="28"/>
       <c r="B19" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="38"/>
+      <c r="C19" s="20"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
@@ -2148,16 +2148,16 @@
         <f>SUM(D19:AH19)</f>
         <v>0</v>
       </c>
-      <c r="AJ19" s="17"/>
-      <c r="AK19" s="20"/>
-      <c r="AL19" s="17"/>
-    </row>
-    <row r="20" spans="1:38">
-      <c r="A20" s="33"/>
+      <c r="AJ19" s="38"/>
+      <c r="AK19" s="43"/>
+      <c r="AL19" s="38"/>
+    </row>
+    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A20" s="28"/>
       <c r="B20" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="36"/>
+      <c r="C20" s="18"/>
       <c r="D20" s="8" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -2286,16 +2286,16 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AJ20" s="18"/>
-      <c r="AK20" s="21"/>
-      <c r="AL20" s="18"/>
-    </row>
-    <row r="21" spans="1:38">
-      <c r="A21" s="33"/>
+      <c r="AJ20" s="37"/>
+      <c r="AK20" s="44"/>
+      <c r="AL20" s="37"/>
+    </row>
+    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A21" s="28"/>
       <c r="B21" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="39" t="s">
+      <c r="C21" s="21" t="s">
         <v>1</v>
       </c>
       <c r="D21" s="11"/>
@@ -2333,19 +2333,19 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AJ21" s="22"/>
-      <c r="AK21" s="19" t="str">
+      <c r="AJ21" s="39"/>
+      <c r="AK21" s="42" t="str">
         <f t="shared" ref="AK21" si="9">IFERROR(AI21/AL21,"")</f>
         <v/>
       </c>
-      <c r="AL21" s="16"/>
-    </row>
-    <row r="22" spans="1:38">
-      <c r="A22" s="33"/>
+      <c r="AL21" s="36"/>
+    </row>
+    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A22" s="28"/>
       <c r="B22" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="40"/>
+      <c r="C22" s="22"/>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
@@ -2381,16 +2381,16 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AJ22" s="23"/>
-      <c r="AK22" s="20"/>
-      <c r="AL22" s="17"/>
-    </row>
-    <row r="23" spans="1:38">
+      <c r="AJ22" s="40"/>
+      <c r="AK22" s="43"/>
+      <c r="AL22" s="38"/>
+    </row>
+    <row r="23" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A23" s="29"/>
       <c r="B23" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="41"/>
+      <c r="C23" s="23"/>
       <c r="D23" s="8" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -2519,18 +2519,18 @@
         <f t="shared" ref="AI23" si="40">IFERROR(AI21/(AI21+AI22),"")</f>
         <v/>
       </c>
-      <c r="AJ23" s="24"/>
-      <c r="AK23" s="21"/>
-      <c r="AL23" s="18"/>
-    </row>
-    <row r="24" spans="1:38">
-      <c r="A24" s="28" t="s">
+      <c r="AJ23" s="41"/>
+      <c r="AK23" s="44"/>
+      <c r="AL23" s="37"/>
+    </row>
+    <row r="24" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A24" s="27" t="s">
         <v>15</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="35" t="s">
+      <c r="C24" s="17" t="s">
         <v>0</v>
       </c>
       <c r="D24" s="11"/>
@@ -2568,19 +2568,19 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AJ24" s="16"/>
-      <c r="AK24" s="19" t="str">
+      <c r="AJ24" s="36"/>
+      <c r="AK24" s="42" t="str">
         <f t="shared" ref="AK24" si="41">IFERROR(AI24/AL24,"")</f>
         <v/>
       </c>
-      <c r="AL24" s="16"/>
-    </row>
-    <row r="25" spans="1:38">
-      <c r="A25" s="33"/>
+      <c r="AL24" s="36"/>
+    </row>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A25" s="28"/>
       <c r="B25" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="38"/>
+      <c r="C25" s="20"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
@@ -2616,16 +2616,16 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AJ25" s="17"/>
-      <c r="AK25" s="20"/>
-      <c r="AL25" s="17"/>
-    </row>
-    <row r="26" spans="1:38">
-      <c r="A26" s="33"/>
+      <c r="AJ25" s="38"/>
+      <c r="AK25" s="43"/>
+      <c r="AL25" s="38"/>
+    </row>
+    <row r="26" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A26" s="28"/>
       <c r="B26" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="36"/>
+      <c r="C26" s="18"/>
       <c r="D26" s="8" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -2754,16 +2754,16 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AJ26" s="18"/>
-      <c r="AK26" s="21"/>
-      <c r="AL26" s="18"/>
-    </row>
-    <row r="27" spans="1:38">
-      <c r="A27" s="33"/>
+      <c r="AJ26" s="37"/>
+      <c r="AK26" s="44"/>
+      <c r="AL26" s="37"/>
+    </row>
+    <row r="27" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A27" s="28"/>
       <c r="B27" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="39" t="s">
+      <c r="C27" s="21" t="s">
         <v>1</v>
       </c>
       <c r="D27" s="11"/>
@@ -2801,19 +2801,19 @@
         <f t="shared" ref="AI27:AI28" si="42">SUM(D27:AH27)</f>
         <v>0</v>
       </c>
-      <c r="AJ27" s="16"/>
-      <c r="AK27" s="19" t="str">
+      <c r="AJ27" s="36"/>
+      <c r="AK27" s="42" t="str">
         <f>IFERROR(AI27/AL27,"")</f>
         <v/>
       </c>
-      <c r="AL27" s="16"/>
-    </row>
-    <row r="28" spans="1:38">
-      <c r="A28" s="33"/>
+      <c r="AL27" s="36"/>
+    </row>
+    <row r="28" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A28" s="28"/>
       <c r="B28" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="40"/>
+      <c r="C28" s="22"/>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
@@ -2849,16 +2849,16 @@
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="AJ28" s="17"/>
-      <c r="AK28" s="20"/>
-      <c r="AL28" s="17"/>
-    </row>
-    <row r="29" spans="1:38">
+      <c r="AJ28" s="38"/>
+      <c r="AK28" s="43"/>
+      <c r="AL28" s="38"/>
+    </row>
+    <row r="29" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A29" s="29"/>
       <c r="B29" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="41"/>
+      <c r="C29" s="23"/>
       <c r="D29" s="8" t="str">
         <f t="shared" ref="D29:AI29" si="43">IFERROR(D27/(D27+D28),"")</f>
         <v/>
@@ -2987,47 +2987,47 @@
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="AJ29" s="18"/>
-      <c r="AK29" s="21"/>
-      <c r="AL29" s="18"/>
-    </row>
-    <row r="30" spans="1:38">
-      <c r="A30" s="42" t="s">
+      <c r="AJ29" s="37"/>
+      <c r="AK29" s="44"/>
+      <c r="AL29" s="37"/>
+    </row>
+    <row r="30" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A30" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="43"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="43"/>
-      <c r="K30" s="43"/>
-      <c r="L30" s="43"/>
-      <c r="M30" s="43"/>
-      <c r="N30" s="43"/>
-      <c r="O30" s="43"/>
-      <c r="P30" s="43"/>
-      <c r="Q30" s="43"/>
-      <c r="R30" s="43"/>
-      <c r="S30" s="43"/>
-      <c r="T30" s="43"/>
-      <c r="U30" s="43"/>
-      <c r="V30" s="43"/>
-      <c r="W30" s="43"/>
-      <c r="X30" s="43"/>
-      <c r="Y30" s="43"/>
-      <c r="Z30" s="43"/>
-      <c r="AA30" s="43"/>
-      <c r="AB30" s="43"/>
-      <c r="AC30" s="43"/>
-      <c r="AD30" s="43"/>
-      <c r="AE30" s="43"/>
-      <c r="AF30" s="43"/>
-      <c r="AG30" s="43"/>
-      <c r="AH30" s="44"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="25"/>
+      <c r="P30" s="25"/>
+      <c r="Q30" s="25"/>
+      <c r="R30" s="25"/>
+      <c r="S30" s="25"/>
+      <c r="T30" s="25"/>
+      <c r="U30" s="25"/>
+      <c r="V30" s="25"/>
+      <c r="W30" s="25"/>
+      <c r="X30" s="25"/>
+      <c r="Y30" s="25"/>
+      <c r="Z30" s="25"/>
+      <c r="AA30" s="25"/>
+      <c r="AB30" s="25"/>
+      <c r="AC30" s="25"/>
+      <c r="AD30" s="25"/>
+      <c r="AE30" s="25"/>
+      <c r="AF30" s="25"/>
+      <c r="AG30" s="25"/>
+      <c r="AH30" s="26"/>
       <c r="AI30" s="9">
         <f t="shared" ref="AI30" si="44">IFERROR(PRODUCT(AI2,AI3,AI4,AI5,AI6,AI9,AI12,AI15,AI18,AI21,AI24,AI27),"")</f>
         <v>0</v>
@@ -3043,25 +3043,56 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:38">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.3">
       <c r="B32" s="14"/>
-      <c r="C32" s="34"/>
-    </row>
-    <row r="33" spans="2:6">
+      <c r="C32" s="16"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" s="14"/>
-      <c r="C33" s="34"/>
+      <c r="C33" s="16"/>
       <c r="E33" s="14"/>
-      <c r="F33" s="37"/>
-    </row>
-    <row r="34" spans="2:6">
-      <c r="F34" s="37"/>
-    </row>
-    <row r="35" spans="2:6">
+      <c r="F33" s="19"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F34" s="19"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E35" s="15"/>
-      <c r="F35" s="37"/>
+      <c r="F35" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="AL21:AL23"/>
+    <mergeCell ref="AL24:AL26"/>
+    <mergeCell ref="AL27:AL29"/>
+    <mergeCell ref="AK6:AK8"/>
+    <mergeCell ref="AK9:AK11"/>
+    <mergeCell ref="AK12:AK14"/>
+    <mergeCell ref="AK15:AK17"/>
+    <mergeCell ref="AK18:AK20"/>
+    <mergeCell ref="AL6:AL8"/>
+    <mergeCell ref="AL9:AL11"/>
+    <mergeCell ref="AL12:AL14"/>
+    <mergeCell ref="AL15:AL17"/>
+    <mergeCell ref="AL18:AL20"/>
+    <mergeCell ref="AJ24:AJ26"/>
+    <mergeCell ref="AJ27:AJ29"/>
+    <mergeCell ref="AK21:AK23"/>
+    <mergeCell ref="AK24:AK26"/>
+    <mergeCell ref="AK27:AK29"/>
+    <mergeCell ref="AJ2:AJ3"/>
+    <mergeCell ref="AJ12:AJ14"/>
+    <mergeCell ref="AJ15:AJ17"/>
+    <mergeCell ref="AJ18:AJ20"/>
+    <mergeCell ref="AJ21:AJ23"/>
+    <mergeCell ref="AJ6:AJ8"/>
+    <mergeCell ref="AJ9:AJ11"/>
+    <mergeCell ref="AJ4:AJ5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="A12:A17"/>
     <mergeCell ref="C32:C33"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B5"/>
@@ -3077,37 +3108,6 @@
     <mergeCell ref="A30:AH30"/>
     <mergeCell ref="A18:A23"/>
     <mergeCell ref="A24:A29"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="AJ2:AJ3"/>
-    <mergeCell ref="AJ12:AJ14"/>
-    <mergeCell ref="AJ15:AJ17"/>
-    <mergeCell ref="AJ18:AJ20"/>
-    <mergeCell ref="AJ21:AJ23"/>
-    <mergeCell ref="AJ6:AJ8"/>
-    <mergeCell ref="AJ9:AJ11"/>
-    <mergeCell ref="AJ4:AJ5"/>
-    <mergeCell ref="AJ24:AJ26"/>
-    <mergeCell ref="AJ27:AJ29"/>
-    <mergeCell ref="AK21:AK23"/>
-    <mergeCell ref="AK24:AK26"/>
-    <mergeCell ref="AK27:AK29"/>
-    <mergeCell ref="AL21:AL23"/>
-    <mergeCell ref="AL24:AL26"/>
-    <mergeCell ref="AL27:AL29"/>
-    <mergeCell ref="AK6:AK8"/>
-    <mergeCell ref="AK9:AK11"/>
-    <mergeCell ref="AK12:AK14"/>
-    <mergeCell ref="AK15:AK17"/>
-    <mergeCell ref="AK18:AK20"/>
-    <mergeCell ref="AL6:AL8"/>
-    <mergeCell ref="AL9:AL11"/>
-    <mergeCell ref="AL12:AL14"/>
-    <mergeCell ref="AL15:AL17"/>
-    <mergeCell ref="AL18:AL20"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/templates/status/electrode.xlsx
+++ b/data/templates/status/electrode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\eurocell-mes-be\data\templates\status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE5ADE46-ADBF-4D93-A709-FFF8B8706993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F4690E-01A7-4B1D-BE10-F2D117414BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E25BFB65-D502-4278-AB85-8965F34E216B}"/>
+    <workbookView xWindow="1065" yWindow="120" windowWidth="25575" windowHeight="15210" xr2:uid="{E25BFB65-D502-4278-AB85-8965F34E216B}"/>
   </bookViews>
   <sheets>
     <sheet name="전극 공정" sheetId="1" r:id="rId1"/>
@@ -434,10 +434,10 @@
     <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -796,7 +796,7 @@
   <dimension ref="A1:AL35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AJ27" sqref="AJ27:AJ29"/>
+      <selection activeCell="AI31" sqref="AI31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -967,7 +967,7 @@
         <f>SUM(D2:AH2)</f>
         <v>0</v>
       </c>
-      <c r="AJ2" s="36"/>
+      <c r="AJ2" s="12"/>
       <c r="AK2" s="5" t="str">
         <f>IFERROR(AI2/AL2,"")</f>
         <v/>
@@ -1015,7 +1015,7 @@
         <f>SUM(D3:AH3)</f>
         <v>0</v>
       </c>
-      <c r="AJ3" s="37"/>
+      <c r="AJ3" s="12"/>
       <c r="AK3" s="5" t="str">
         <f t="shared" ref="AK3:AK5" si="0">IFERROR(AI3/AL3,"")</f>
         <v/>
@@ -1067,7 +1067,7 @@
         <f>SUM(D4:AH4)</f>
         <v>0</v>
       </c>
-      <c r="AJ4" s="36"/>
+      <c r="AJ4" s="12"/>
       <c r="AK4" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1115,7 +1115,7 @@
         <f>SUM(D5:AH5)</f>
         <v>0</v>
       </c>
-      <c r="AJ5" s="37"/>
+      <c r="AJ5" s="12"/>
       <c r="AK5" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1215,9 +1215,9 @@
         <f t="shared" ref="AI7:AI25" si="2">SUM(D7:AH7)</f>
         <v>0</v>
       </c>
-      <c r="AJ7" s="38"/>
+      <c r="AJ7" s="37"/>
       <c r="AK7" s="43"/>
-      <c r="AL7" s="38"/>
+      <c r="AL7" s="37"/>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" s="34"/>
@@ -1353,9 +1353,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AJ8" s="37"/>
+      <c r="AJ8" s="38"/>
       <c r="AK8" s="44"/>
-      <c r="AL8" s="37"/>
+      <c r="AL8" s="38"/>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" s="34"/>
@@ -1450,7 +1450,7 @@
       </c>
       <c r="AJ10" s="40"/>
       <c r="AK10" s="43"/>
-      <c r="AL10" s="38"/>
+      <c r="AL10" s="37"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A11" s="35"/>
@@ -1588,7 +1588,7 @@
       </c>
       <c r="AJ11" s="41"/>
       <c r="AK11" s="44"/>
-      <c r="AL11" s="37"/>
+      <c r="AL11" s="38"/>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" s="27" t="s">
@@ -1683,9 +1683,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AJ13" s="38"/>
+      <c r="AJ13" s="37"/>
       <c r="AK13" s="43"/>
-      <c r="AL13" s="38"/>
+      <c r="AL13" s="37"/>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" s="28"/>
@@ -1821,9 +1821,9 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AJ14" s="37"/>
+      <c r="AJ14" s="38"/>
       <c r="AK14" s="44"/>
-      <c r="AL14" s="37"/>
+      <c r="AL14" s="38"/>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" s="28"/>
@@ -1918,7 +1918,7 @@
       </c>
       <c r="AJ16" s="40"/>
       <c r="AK16" s="43"/>
-      <c r="AL16" s="38"/>
+      <c r="AL16" s="37"/>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A17" s="29"/>
@@ -2053,7 +2053,7 @@
       <c r="AI17" s="8"/>
       <c r="AJ17" s="41"/>
       <c r="AK17" s="44"/>
-      <c r="AL17" s="37"/>
+      <c r="AL17" s="38"/>
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A18" s="27" t="s">
@@ -2148,9 +2148,9 @@
         <f>SUM(D19:AH19)</f>
         <v>0</v>
       </c>
-      <c r="AJ19" s="38"/>
+      <c r="AJ19" s="37"/>
       <c r="AK19" s="43"/>
-      <c r="AL19" s="38"/>
+      <c r="AL19" s="37"/>
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A20" s="28"/>
@@ -2286,9 +2286,9 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AJ20" s="37"/>
+      <c r="AJ20" s="38"/>
       <c r="AK20" s="44"/>
-      <c r="AL20" s="37"/>
+      <c r="AL20" s="38"/>
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A21" s="28"/>
@@ -2383,7 +2383,7 @@
       </c>
       <c r="AJ22" s="40"/>
       <c r="AK22" s="43"/>
-      <c r="AL22" s="38"/>
+      <c r="AL22" s="37"/>
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A23" s="29"/>
@@ -2521,7 +2521,7 @@
       </c>
       <c r="AJ23" s="41"/>
       <c r="AK23" s="44"/>
-      <c r="AL23" s="37"/>
+      <c r="AL23" s="38"/>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A24" s="27" t="s">
@@ -2616,9 +2616,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AJ25" s="38"/>
+      <c r="AJ25" s="37"/>
       <c r="AK25" s="43"/>
-      <c r="AL25" s="38"/>
+      <c r="AL25" s="37"/>
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A26" s="28"/>
@@ -2754,9 +2754,9 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AJ26" s="37"/>
+      <c r="AJ26" s="38"/>
       <c r="AK26" s="44"/>
-      <c r="AL26" s="37"/>
+      <c r="AL26" s="38"/>
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A27" s="28"/>
@@ -2849,9 +2849,9 @@
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="AJ28" s="38"/>
+      <c r="AJ28" s="37"/>
       <c r="AK28" s="43"/>
-      <c r="AL28" s="38"/>
+      <c r="AL28" s="37"/>
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A29" s="29"/>
@@ -2987,9 +2987,9 @@
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="AJ29" s="37"/>
+      <c r="AJ29" s="38"/>
       <c r="AK29" s="44"/>
-      <c r="AL29" s="37"/>
+      <c r="AL29" s="38"/>
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A30" s="24" t="s">
@@ -3029,15 +3029,15 @@
       <c r="AG30" s="25"/>
       <c r="AH30" s="26"/>
       <c r="AI30" s="9">
-        <f t="shared" ref="AI30" si="44">IFERROR(PRODUCT(AI2,AI3,AI4,AI5,AI6,AI9,AI12,AI15,AI18,AI21,AI24,AI27),"")</f>
+        <f>IFERROR(AVERAGE(AI2,AI3,AI4,AI5,AI6,AI9,AI12,AI15,AI18,AI21,AI24,AI27),"")</f>
         <v>0</v>
       </c>
       <c r="AJ30" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="AK30" s="9">
-        <f>IFERROR(PRODUCT(AK2,AK3,AK4,AK5,AK6,AK9,AK12,AK15,AK18,AK21,AK24,AK27),"")</f>
-        <v>0</v>
+      <c r="AK30" s="9" t="str">
+        <f>IFERROR(AVERAGE(AK2,AK3,AK4,AK5,AK6,AK9,AK12,AK15,AK18,AK21,AK24,AK27),"")</f>
+        <v/>
       </c>
       <c r="AL30" s="10" t="s">
         <v>17</v>
@@ -3061,7 +3061,7 @@
       <c r="F35" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="46">
+  <mergeCells count="44">
     <mergeCell ref="AL21:AL23"/>
     <mergeCell ref="AL24:AL26"/>
     <mergeCell ref="AL27:AL29"/>
@@ -3080,14 +3080,12 @@
     <mergeCell ref="AK21:AK23"/>
     <mergeCell ref="AK24:AK26"/>
     <mergeCell ref="AK27:AK29"/>
-    <mergeCell ref="AJ2:AJ3"/>
     <mergeCell ref="AJ12:AJ14"/>
     <mergeCell ref="AJ15:AJ17"/>
     <mergeCell ref="AJ18:AJ20"/>
     <mergeCell ref="AJ21:AJ23"/>
     <mergeCell ref="AJ6:AJ8"/>
     <mergeCell ref="AJ9:AJ11"/>
-    <mergeCell ref="AJ4:AJ5"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
